--- a/plan/W文档/Card.xlsx
+++ b/plan/W文档/Card.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Card" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,27 +67,23 @@
     <t>等级</t>
   </si>
   <si>
-    <t>1;2;3;4;5;6;7;8;9;10;11;12;13</t>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>攻击伤害</t>
+  </si>
+  <si>
+    <t>对塔伤害</t>
+  </si>
+  <si>
+    <t>攻击CD</t>
+  </si>
+  <si>
+    <t>移动速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>32;35;38;42;46;51;56;61;67;74;81;89;94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击伤害</t>
-  </si>
-  <si>
-    <t>对塔伤害</t>
-  </si>
-  <si>
-    <t>攻击CD</t>
-  </si>
-  <si>
-    <t>移动速度</t>
+    <t>数组测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +106,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,14 +137,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -437,15 +451,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
@@ -458,203 +478,848 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
       </c>
       <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="1">
         <v>1217</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1">
+        <v>63</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>46</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>51</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>61</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>67</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>74</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>81</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>89</v>
+      </c>
+      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>94</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1217</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>55</v>
+      </c>
+      <c r="J15" s="1">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1">
+        <v>11</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="1">
+        <v>66</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>64</v>
+      </c>
+      <c r="J16">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2">
+      <c r="K16">
+        <v>17</v>
+      </c>
+      <c r="N16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>73</v>
+      </c>
+      <c r="J17">
+        <v>24</v>
+      </c>
+      <c r="K17">
+        <v>23</v>
+      </c>
+      <c r="N17">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>82</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>29</v>
+      </c>
+      <c r="N18">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>91</v>
+      </c>
+      <c r="J19">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>35</v>
+      </c>
+      <c r="N19">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>41</v>
+      </c>
+      <c r="N20">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>109</v>
+      </c>
+      <c r="J21">
+        <v>48</v>
+      </c>
+      <c r="K21">
+        <v>47</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>118</v>
+      </c>
+      <c r="J22">
+        <v>54</v>
+      </c>
+      <c r="K22">
+        <v>53</v>
+      </c>
+      <c r="N22">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>127</v>
+      </c>
+      <c r="J23">
+        <v>60</v>
+      </c>
+      <c r="K23">
+        <v>59</v>
+      </c>
+      <c r="N23">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>136</v>
+      </c>
+      <c r="J24">
+        <v>66</v>
+      </c>
+      <c r="K24">
+        <v>65</v>
+      </c>
+      <c r="N24">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <v>145</v>
+      </c>
+      <c r="J25">
+        <v>72</v>
+      </c>
+      <c r="K25">
+        <v>71</v>
+      </c>
+      <c r="N25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H26">
+        <v>12</v>
+      </c>
+      <c r="I26">
+        <v>154</v>
+      </c>
+      <c r="J26">
+        <v>78</v>
+      </c>
+      <c r="K26">
+        <v>77</v>
+      </c>
+      <c r="N26">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H27">
+        <v>13</v>
+      </c>
+      <c r="I27">
+        <v>163</v>
+      </c>
+      <c r="J27">
+        <v>84</v>
+      </c>
+      <c r="K27">
+        <v>83</v>
+      </c>
+      <c r="N27">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1217</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>32</v>
+      </c>
+      <c r="J28" s="1">
+        <v>32</v>
+      </c>
+      <c r="K28" s="1">
+        <v>32</v>
+      </c>
+      <c r="L28" s="1">
         <v>1000</v>
       </c>
-      <c r="N2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="M28" s="1">
+        <v>69</v>
+      </c>
+      <c r="N28" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>35</v>
+      </c>
+      <c r="J29">
+        <v>35</v>
+      </c>
+      <c r="K29">
+        <v>35</v>
+      </c>
+      <c r="N29">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>38</v>
+      </c>
+      <c r="J30">
+        <v>38</v>
+      </c>
+      <c r="K30">
+        <v>38</v>
+      </c>
+      <c r="N30">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H31">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I31">
+        <v>42</v>
+      </c>
+      <c r="J31">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>42</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="I32">
+        <v>46</v>
+      </c>
+      <c r="J32">
+        <v>46</v>
+      </c>
+      <c r="K32">
+        <v>46</v>
+      </c>
+      <c r="N32">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>51</v>
+      </c>
+      <c r="J33">
+        <v>51</v>
+      </c>
+      <c r="K33">
+        <v>51</v>
+      </c>
+      <c r="N33">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>56</v>
+      </c>
+      <c r="J34">
+        <v>56</v>
+      </c>
+      <c r="K34">
+        <v>56</v>
+      </c>
+      <c r="N34">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>61</v>
+      </c>
+      <c r="J35">
+        <v>61</v>
+      </c>
+      <c r="K35">
+        <v>61</v>
+      </c>
+      <c r="N35">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H36">
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <v>67</v>
+      </c>
+      <c r="J36">
+        <v>67</v>
+      </c>
+      <c r="K36">
+        <v>67</v>
+      </c>
+      <c r="N36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1217</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>32</v>
+      </c>
+      <c r="J37" s="1">
+        <v>32</v>
+      </c>
+      <c r="K37" s="1">
+        <v>32</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M37" s="1">
+        <v>72</v>
+      </c>
+      <c r="N37" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H38">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1217</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3">
-        <v>1000</v>
-      </c>
-      <c r="N3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="I38">
+        <v>35</v>
+      </c>
+      <c r="J38">
+        <v>35</v>
+      </c>
+      <c r="K38">
+        <v>35</v>
+      </c>
+      <c r="N38">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>38</v>
+      </c>
+      <c r="J39">
+        <v>38</v>
+      </c>
+      <c r="K39">
+        <v>38</v>
+      </c>
+      <c r="N39">
+        <v>4.7999999999999901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>42</v>
+      </c>
+      <c r="J40">
+        <v>42</v>
+      </c>
+      <c r="K40">
+        <v>42</v>
+      </c>
+      <c r="N40">
+        <v>4.8999999999999897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>46</v>
+      </c>
+      <c r="J41">
+        <v>46</v>
+      </c>
+      <c r="K41">
+        <v>46</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H42">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>1217</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
-      <c r="N4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1217</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5">
-        <v>1000</v>
-      </c>
-      <c r="N5">
-        <v>72</v>
+      <c r="I42">
+        <v>51</v>
+      </c>
+      <c r="J42">
+        <v>51</v>
+      </c>
+      <c r="K42">
+        <v>51</v>
+      </c>
+      <c r="N42">
+        <v>5.0999999999999899</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>